--- a/Data_science_outputs/1000pop/output_results/output_analysis_2.xlsx
+++ b/Data_science_outputs/1000pop/output_results/output_analysis_2.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17482.92260338245</v>
+        <v>10613.61331315967</v>
       </c>
       <c r="C3" t="n">
         <v>7643.809767460358</v>
       </c>
       <c r="D3" t="n">
-        <v>7567.760992412273</v>
+        <v>697.1794862465113</v>
       </c>
       <c r="E3" t="n">
         <v>2263.691175480803</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8912.119193094593</v>
+        <v>4525.229245257393</v>
       </c>
       <c r="C4" t="n">
         <v>3964.812676210917</v>
       </c>
       <c r="D4" t="n">
-        <v>7236.428321461771</v>
+        <v>639.0346550209613</v>
       </c>
       <c r="E4" t="n">
         <v>806.0739146419676</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1387.032</v>
+        <v>1069.025</v>
       </c>
       <c r="C5" t="n">
         <v>995.003</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9326.012000000002</v>
+        <v>7080.953</v>
       </c>
       <c r="C6" t="n">
         <v>4260.001</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18197.41800000006</v>
+        <v>9676.126000000007</v>
       </c>
       <c r="C7" t="n">
         <v>6626.021000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>7200</v>
+        <v>920</v>
       </c>
       <c r="E7" t="n">
         <v>2266.017</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23547.026</v>
+        <v>14378.45375000002</v>
       </c>
       <c r="C8" t="n">
         <v>10917.47700000001</v>
       </c>
       <c r="D8" t="n">
-        <v>15360</v>
+        <v>1280</v>
       </c>
       <c r="E8" t="n">
         <v>2840.002</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35186.77000000012</v>
+        <v>24293.37300000006</v>
       </c>
       <c r="C9" t="n">
         <v>19812.35600000005</v>
       </c>
       <c r="D9" t="n">
-        <v>15360.001</v>
+        <v>5100</v>
       </c>
       <c r="E9" t="n">
         <v>5915.005000000001</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>9189024120.337015</v>
+        <v>5578515157.397015</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>77049602.45600027</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4376539671918415</v>
+        <v>0.7210308521362605</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>3977615177.618001</v>
+        <v>366437537.9720001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4328658980026834</v>
+        <v>0.0656872891142207</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>1189796081.831999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1294801348054751</v>
+        <v>0.2132818587495187</v>
       </c>
     </row>
   </sheetData>
